--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_6.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_6.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="58">
   <si>
     <t>Sezione</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -238,7 +244,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -698,7 +704,7 @@
         <v>47</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>27</v>
@@ -715,19 +721,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -738,19 +744,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
@@ -761,19 +767,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
@@ -784,19 +790,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
@@ -807,19 +813,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
@@ -830,19 +836,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
@@ -853,19 +859,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
@@ -876,19 +882,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -899,19 +905,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
@@ -922,19 +928,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
@@ -945,19 +951,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -968,19 +974,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -994,7 +1000,7 @@
         <v>51</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
@@ -1003,7 +1009,7 @@
         <v>52</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1014,24 +1020,70 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="2" t="s">
+      <c r="F35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_6.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_6.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="60">
   <si>
     <t>Sezione</t>
   </si>
@@ -35,16 +35,22 @@
     <t>Condizioni obbligatorieta'</t>
   </si>
   <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Allegato generico</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
     <t>122.1</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>122-bis.1</t>
@@ -244,7 +250,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -307,10 +313,10 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -329,86 +335,86 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
@@ -417,21 +423,21 @@
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>24</v>
@@ -440,44 +446,44 @@
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>30</v>
@@ -486,21 +492,21 @@
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>32</v>
@@ -509,21 +515,21 @@
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>34</v>
@@ -532,21 +538,21 @@
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>36</v>
@@ -555,21 +561,21 @@
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>38</v>
@@ -578,104 +584,104 @@
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>45</v>
@@ -684,7 +690,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>46</v>
@@ -693,12 +699,12 @@
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>47</v>
@@ -707,7 +713,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>48</v>
@@ -716,21 +722,21 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>50</v>
@@ -739,44 +745,44 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>30</v>
@@ -785,21 +791,21 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>32</v>
@@ -808,21 +814,21 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>34</v>
@@ -831,21 +837,21 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>36</v>
@@ -854,21 +860,21 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>38</v>
@@ -877,104 +883,104 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>45</v>
@@ -983,7 +989,7 @@
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>46</v>
@@ -992,12 +998,12 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>47</v>
@@ -1006,7 +1012,7 @@
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>48</v>
@@ -1015,21 +1021,21 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>50</v>
@@ -1038,7 +1044,7 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
@@ -1046,45 +1052,68 @@
         <v>53</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
